--- a/Outputs/timesheets.xlsx
+++ b/Outputs/timesheets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Net Amount</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cost Center</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Hire Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Termination Date</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Available Days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Employee ID</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -562,55 +562,55 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adrienne Wickham-Gobert | Adrienne W. Gobert</t>
+          <t>Amar Shah</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13584.12</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Influence Team</t>
-        </is>
+        <v>913</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5048.16</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Carbon-Free Buildings</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>04/16/2024</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>03/02/2020</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Remote - California</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>21</v>
       </c>
-      <c r="J2" t="n">
-        <v>1939</v>
-      </c>
       <c r="K2" t="n">
-        <v>2716.823667</v>
+        <v>1130.972417</v>
       </c>
       <c r="L2" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M2" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -633,22 +633,22 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2145</t>
+          <t>PROJECT_PLAN_TASK-3-2271</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>COM - Admin</t>
+          <t>BLD - Admin</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Influence Team &gt; PTO</t>
+          <t>Carbon-Free Buildings &gt; PTO</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5737</t>
+          <t>PROJECT_PLAN_TASK-3-5718</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -658,55 +658,55 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandra Jardine Wall</t>
+          <t>Andrew Waddell (On Leave)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9699.18</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>1711</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4180.13</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Climate Aligned Industries</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>01/24/2022</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>01/17/2023</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Remote - Texas</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Remote - California</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>21</v>
       </c>
-      <c r="J3" t="n">
-        <v>1426</v>
-      </c>
       <c r="K3" t="n">
-        <v>969.916667</v>
+        <v>879.166667</v>
       </c>
       <c r="L3" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M3" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -754,55 +754,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amar Shah</t>
+          <t>Ben Webster</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5048.16</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Carbon-Free Buildings</t>
-        </is>
+        <v>1553</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15416.68</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>MiQ Foundation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>03/02/2020</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>06/06/2022</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Remote - California</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Remote - Colorado</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>21</v>
       </c>
-      <c r="J4" t="n">
-        <v>913</v>
-      </c>
       <c r="K4" t="n">
-        <v>1130.972417</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M4" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -820,27 +820,27 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Admin &gt; General</t>
+          <t>General &gt; General</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2271</t>
+          <t>PROJECT_PLAN_TASK-3-4631</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>BLD - Admin</t>
+          <t>MiQ - Admin</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Carbon-Free Buildings &gt; PTO</t>
+          <t>MiQ &gt; PTO</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5718</t>
+          <t>PROJECT_PLAN_TASK-3-5730</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -850,55 +850,55 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andrew Waddell (On Leave)</t>
+          <t>James Mitchell (On Leave)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4180.13</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Climate Aligned Industries</t>
-        </is>
+        <v>645</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17263.55</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>01/17/2023</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>07/01/2021</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Remote - California</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Remote-United Kingdom</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>21</v>
       </c>
-      <c r="J5" t="n">
-        <v>1711</v>
-      </c>
       <c r="K5" t="n">
-        <v>879.166667</v>
+        <v>2985.877333</v>
       </c>
       <c r="L5" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M5" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -921,22 +921,22 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-2415</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>GCF - Admin</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>Finance &gt; PTO</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5726</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -946,55 +946,55 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ben Webster</t>
+          <t>James Sun (On Leave)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15416.68</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MiQ Foundation</t>
-        </is>
+        <v>1716</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6437.76</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Climate Aligned Industries</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>06/06/2022</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>01/17/2023</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Remote - Colorado</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Remote - Michigan</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>21</v>
       </c>
-      <c r="J6" t="n">
-        <v>1553</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>321.875</v>
       </c>
       <c r="L6" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M6" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>General &gt; General</t>
+          <t>Admin &gt; General</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-4631</t>
+          <t>PROJECT_PLAN_TASK-3-2343</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>MiQ - Admin</t>
+          <t>CAI - Admin</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>MiQ &gt; PTO</t>
+          <t>Climate Aligned Industries &gt; PTO</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5730</t>
+          <t>PROJECT_PLAN_TASK-3-5723</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1042,55 +1042,55 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chris Potter</t>
+          <t>Jennifer Grizzard Ekzarkhov</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8345.76</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Influence Team</t>
-        </is>
+        <v>1394</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11058.13</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>02/28/2022</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Remote - New York</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Remote - Maryland</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>21</v>
       </c>
-      <c r="J7" t="n">
-        <v>1437</v>
-      </c>
       <c r="K7" t="n">
-        <v>834.57525</v>
+        <v>1105.811417</v>
       </c>
       <c r="L7" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M7" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1113,22 +1113,22 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2145</t>
+          <t>PROJECT_PLAN_TASK-3-2181</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>COM - Admin</t>
+          <t>DEV - Admin</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Influence Team &gt; PTO</t>
+          <t>Development &gt; PTO</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5737</t>
+          <t>PROJECT_PLAN_TASK-3-5770</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -1138,55 +1138,55 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Heather House</t>
+          <t>Jeremy Wendt</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11900.01</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Climate Aligned Industries</t>
-        </is>
+        <v>1015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12114.17</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Org Finance</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>09/11/2017</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>01/19/2021</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Remote - Colorado</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>21</v>
       </c>
-      <c r="J8" t="n">
-        <v>593</v>
-      </c>
       <c r="K8" t="n">
-        <v>2380</v>
+        <v>1211.415167</v>
       </c>
       <c r="L8" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M8" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1209,22 +1209,22 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-1652</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>ACT - Accounting</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>Accounting &gt; PTO</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5772</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1234,55 +1234,55 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>James Mitchell (On Leave)</t>
+          <t>Julia Thayne (Terminated)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17726.8</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
+        <v>1308</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7113.08</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Climate Aligned Industries</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>07/01/2021</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/31/2040</t>
+          <t>09/13/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Remote-United Kingdom</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>21</v>
+          <t>09/30/2024</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Remote - California</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>645</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>2985.877333</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M9" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1305,22 +1305,22 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2415</t>
+          <t>PROJECT_PLAN_TASK-3-2343</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>GCF - Admin</t>
+          <t>CAI - Admin</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Finance &gt; PTO</t>
+          <t>Climate Aligned Industries &gt; PTO</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5726</t>
+          <t>PROJECT_PLAN_TASK-3-5723</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -1330,55 +1330,55 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>281</v>
+        <v>409</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>James Sun (On Leave)</t>
+          <t>Lara Owens</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6437.76</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Climate Aligned Industries</t>
-        </is>
+        <v>1008</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13333.35</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>MiQ Foundation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>01/17/2023</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>12/15/2020</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Remote - Michigan</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Remote - Pennsylvania</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>21</v>
       </c>
-      <c r="J10" t="n">
-        <v>1716</v>
-      </c>
       <c r="K10" t="n">
-        <v>321.875</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M10" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Admin &gt; General</t>
+          <t>General &gt; General</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-4631</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>MiQ - Admin</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>MiQ &gt; PTO</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5730</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1426,55 +1426,55 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>295</v>
+        <v>427</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jennifer Grizzard Ekzarkhov</t>
+          <t>Leslyn Simmons | Lyn Simmons</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11058.13</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
+        <v>1466</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12795.43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>People Team</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>04/11/2022</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Remote - Maryland</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Remote - Virginia</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>21</v>
       </c>
-      <c r="J11" t="n">
-        <v>1394</v>
-      </c>
       <c r="K11" t="n">
-        <v>1105.811417</v>
+        <v>2559.083333</v>
       </c>
       <c r="L11" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M11" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1497,22 +1497,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2181</t>
+          <t>PROJECT_PLAN_TASK-3-2235</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>DEV - Admin</t>
+          <t>HRS - Admin</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Development &gt; PTO</t>
+          <t>People Team &gt; PTO</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5770</t>
+          <t>PROJECT_PLAN_TASK-3-5769</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1522,55 +1522,55 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jeremy Wendt</t>
+          <t>Malika Jackson (On Leave)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12114.17</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Org Finance</t>
-        </is>
+        <v>1458</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5690.75</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>People Team</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>01/19/2021</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>03/28/2022</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Remote - Colorado</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Remote - District of Columbia</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>21</v>
       </c>
-      <c r="J12" t="n">
-        <v>1015</v>
-      </c>
       <c r="K12" t="n">
-        <v>1211.415167</v>
+        <v>1138.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M12" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1593,22 +1593,22 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-1652</t>
+          <t>PROJECT_PLAN_TASK-3-2235</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>ACT - Accounting</t>
+          <t>HRS - Admin</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Accounting &gt; PTO</t>
+          <t>People Team &gt; PTO</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5772</t>
+          <t>PROJECT_PLAN_TASK-3-5769</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1618,55 +1618,55 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>330</v>
+        <v>487</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Julia Thayne (Terminated)</t>
+          <t>Michael Huffman</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12234.54</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Climate Aligned Industries</t>
-        </is>
+        <v>1725</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4891.64</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Climate Intelligence</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>09/13/2021</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>01/17/2023</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Remote - California</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
+          <t>10/31/2040</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Remote - Colorado</t>
+        </is>
       </c>
       <c r="J13" t="n">
-        <v>1308</v>
+        <v>21</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>939.875</v>
       </c>
       <c r="L13" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M13" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1689,22 +1689,22 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-2379</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>CIP - Admin</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>Climate Intelligence &gt; PTO</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5722</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -1714,55 +1714,55 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>373</v>
+        <v>599</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lara Owens</t>
+          <t>Sarah La Monaca | Sarah LaMonaca</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13333.35</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MiQ Foundation</t>
-        </is>
+        <v>887</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11669.78</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>12/15/2020</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>11/04/2019</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Remote - Pennsylvania</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Remote-Netherlands</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>21</v>
       </c>
-      <c r="J14" t="n">
-        <v>1008</v>
-      </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2458.176333</v>
       </c>
       <c r="L14" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M14" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>General &gt; General</t>
+          <t>Admin &gt; General</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-4631</t>
+          <t>PROJECT_PLAN_TASK-3-2415</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>MiQ - Admin</t>
+          <t>GCF - Admin</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>MiQ &gt; PTO</t>
+          <t>Finance &gt; PTO</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5730</t>
+          <t>PROJECT_PLAN_TASK-3-5726</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1810,55 +1810,55 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>391</v>
+        <v>613</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Leslyn Simmons | Lyn Simmons</t>
+          <t>Shannon Hughes (On Leave)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12795.43</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>People Team</t>
-        </is>
+        <v>1334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6754.96</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Influence Team</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>04/11/2022</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>09/27/2021</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Remote - Virginia</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Remote - Montana</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>21</v>
       </c>
-      <c r="J15" t="n">
-        <v>1466</v>
-      </c>
       <c r="K15" t="n">
-        <v>2559.083333</v>
+        <v>1046.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M15" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1881,22 +1881,22 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2235</t>
+          <t>PROJECT_PLAN_TASK-3-2145</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>HRS - Admin</t>
+          <t>COM - Admin</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>People Team &gt; PTO</t>
+          <t>Influence Team &gt; PTO</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5769</t>
+          <t>PROJECT_PLAN_TASK-3-5737</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1906,55 +1906,55 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>411</v>
+        <v>614</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Malika Jackson (On Leave)</t>
+          <t>Sharon Paterson</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5690.75</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>People Team</t>
-        </is>
+        <v>1516</v>
+      </c>
+      <c r="D16" t="n">
+        <v>16666.69</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>MiQ Foundation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>03/28/2022</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>05/18/2022</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Remote - District of Columbia</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Remote - North Carolina</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>21</v>
       </c>
-      <c r="J16" t="n">
-        <v>1458</v>
-      </c>
       <c r="K16" t="n">
-        <v>1138.15</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M16" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Admin &gt; General</t>
+          <t>General &gt; General</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2235</t>
+          <t>PROJECT_PLAN_TASK-3-4631</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>HRS - Admin</t>
+          <t>MiQ - Admin</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>People Team &gt; PTO</t>
+          <t>MiQ &gt; PTO</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5769</t>
+          <t>PROJECT_PLAN_TASK-3-5730</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2002,55 +2002,55 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>450</v>
+        <v>656</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Michael Huffman</t>
+          <t>Truc Huynh | Tracy Huynh (On Leave)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4891.64</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Climate Intelligence</t>
-        </is>
+        <v>1649</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8265.700000000001</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Carbon-Free Buildings</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>01/17/2023</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>10/11/2022</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Remote - Colorado</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Remote-Switzerland</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>21</v>
       </c>
-      <c r="J17" t="n">
-        <v>1725</v>
-      </c>
       <c r="K17" t="n">
-        <v>939.875</v>
+        <v>419.08125</v>
       </c>
       <c r="L17" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M17" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2073,22 +2073,22 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2379</t>
+          <t>PROJECT_PLAN_TASK-3-2271</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>CIP - Admin</t>
+          <t>BLD - Admin</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Climate Intelligence &gt; PTO</t>
+          <t>Carbon-Free Buildings &gt; PTO</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5722</t>
+          <t>PROJECT_PLAN_TASK-3-5718</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2098,55 +2098,55 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>560</v>
+        <v>693</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sarah La Monaca | Sarah LaMonaca</t>
+          <t>Yetunde Smythe | Yetti Smythe</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>11669.78</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
+        <v>1604</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8583.35</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>People Team</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>11/04/2019</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>08/02/2022</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Remote-Netherlands</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Remote - Maryland</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>21</v>
       </c>
-      <c r="J18" t="n">
-        <v>887</v>
-      </c>
       <c r="K18" t="n">
-        <v>2458.176333</v>
+        <v>429.166667</v>
       </c>
       <c r="L18" t="n">
-        <v>1960.14998502994</v>
+        <v>3240.020445103858</v>
       </c>
       <c r="M18" t="n">
-        <v>687.1234880239522</v>
+        <v>998.3016913946587</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -2169,22 +2169,22 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2415</t>
+          <t>PROJECT_PLAN_TASK-3-2235</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>GCF - Admin</t>
+          <t>HRS - Admin</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Finance &gt; PTO</t>
+          <t>People Team &gt; PTO</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5726</t>
+          <t>PROJECT_PLAN_TASK-3-5769</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2194,63 +2194,63 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>574</v>
+        <v>710</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shannon Hughes (On Leave)</t>
+          <t>Akshima Ghate</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6754.96</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Influence Team</t>
-        </is>
+        <v>1913</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>09/27/2021</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>03/01/2024</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Remote - Montana</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>21</v>
       </c>
-      <c r="J19" t="n">
-        <v>1334</v>
-      </c>
       <c r="K19" t="n">
-        <v>1046.5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1960.14998502994</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>687.1234880239522</v>
+        <v>0</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>GP &amp; RMI</t>
+          <t>India</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>23093.46</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2265,22 +2265,22 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2145</t>
+          <t>PROJECT_PLAN_TASK-3-2433</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>COM - Admin</t>
+          <t>IN - Admin</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Influence Team &gt; PTO</t>
+          <t>India &gt; PTO</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5737</t>
+          <t>PROJECT_PLAN_TASK-3-5727</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -2290,63 +2290,63 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>575</v>
+        <v>728</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sharon Paterson</t>
+          <t>Riya Saxena</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16666.69</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MiQ Foundation</t>
-        </is>
+        <v>1922</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>05/18/2022</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>03/01/2024</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>10/31/2040</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Remote - North Carolina</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>21</v>
       </c>
-      <c r="J20" t="n">
-        <v>1516</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1960.14998502994</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>687.1234880239522</v>
+        <v>0</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>GP &amp; RMI</t>
+          <t>India</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>6629.33</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>General &gt; General</t>
+          <t>Admin &gt; General</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-4631</t>
+          <t>PROJECT_PLAN_TASK-3-2433</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>MiQ - Admin</t>
+          <t>IN - Admin</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>MiQ &gt; PTO</t>
+          <t>India &gt; PTO</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5730</t>
+          <t>PROJECT_PLAN_TASK-3-5727</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -2386,59 +2386,55 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>617</v>
+        <v>734</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Truc Huynh | Tracy Huynh (On Leave)</t>
+          <t>Ruosida Lin | Star Lin</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8265.700000000001</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Carbon-Free Buildings</t>
-        </is>
+        <v>517</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Climate Aligned Industries</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>10/11/2022</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/31/2040</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Remote-Switzerland</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
+          <t>09/01/2015</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Remote - Colorado</t>
+        </is>
       </c>
       <c r="J21" t="n">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>419.08125</v>
+        <v>448.835833</v>
       </c>
       <c r="L21" t="n">
-        <v>1960.14998502994</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>687.1234880239522</v>
+        <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>GP &amp; RMI</t>
+          <t>Bonus Only</t>
         </is>
       </c>
       <c r="O21" t="n">
@@ -2448,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2457,22 +2453,22 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2271</t>
+          <t>PROJECT_PLAN_TASK-3-2343</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>BLD - Admin</t>
+          <t>CAI - Admin</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Carbon-Free Buildings &gt; PTO</t>
+          <t>Climate Aligned Industries &gt; PTO</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5718</t>
+          <t>PROJECT_PLAN_TASK-3-5723</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -2482,59 +2478,55 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>618</v>
+        <v>735</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tyeler Matsuo</t>
+          <t>Joanna Unruh</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12308.34</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity</t>
-        </is>
+        <v>617</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Org Finance</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>10/15/2018</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/31/2040</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Remote - Colorado</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
+          <t>03/05/2018</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Remote - Montana</t>
+        </is>
       </c>
       <c r="J22" t="n">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2461.666667</v>
+        <v>1048.545333</v>
       </c>
       <c r="L22" t="n">
-        <v>1960.14998502994</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>687.1234880239522</v>
+        <v>0</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>GP &amp; RMI</t>
+          <t>Bonus Only</t>
         </is>
       </c>
       <c r="O22" t="n">
@@ -2544,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2553,22 +2545,22 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2289</t>
+          <t>PROJECT_PLAN_TASK-3-1652</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>POW - Admin</t>
+          <t>ACT - Accounting</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Carbon-Free Electricity &gt; PTO</t>
+          <t>Accounting &gt; PTO</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5698</t>
+          <t>PROJECT_PLAN_TASK-3-5772</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -2578,59 +2570,55 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Yetunde Smythe | Yetti Smythe</t>
+          <t>Samuel Mardell | Sam Mardell</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8583.35</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>People Team</t>
-        </is>
+        <v>628</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Carbon-Free Electricity</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>08/02/2022</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/31/2040</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Remote - Maryland</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>21</v>
+          <t>06/10/2019</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Remote - New York</t>
+        </is>
       </c>
       <c r="J23" t="n">
-        <v>1604</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>429.166667</v>
+        <v>1022.623917</v>
       </c>
       <c r="L23" t="n">
-        <v>1960.14998502994</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>687.1234880239522</v>
+        <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>GP &amp; RMI</t>
+          <t>Bonus Only</t>
         </is>
       </c>
       <c r="O23" t="n">
@@ -2640,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2649,22 +2637,22 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2235</t>
+          <t>PROJECT_PLAN_TASK-3-2289</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>HRS - Admin</t>
+          <t>POW - Admin</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>People Team &gt; PTO</t>
+          <t>Carbon-Free Electricity &gt; PTO</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5769</t>
+          <t>PROJECT_PLAN_TASK-3-5698</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -2674,49 +2662,45 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>671</v>
+        <v>737</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Akshima Ghate</t>
+          <t>Matthew Popkin</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
+        <v>813</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>03/01/2024</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/31/2040</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>New Delhi</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>21</v>
+          <t>02/04/2019</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Remote - Colorado</t>
+        </is>
       </c>
       <c r="J24" t="n">
-        <v>1913</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1106.028</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2726,17 +2710,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bonus Only</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>23093.46</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2745,22 +2729,22 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2433</t>
+          <t>PROJECT_PLAN_TASK-3-2559</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>IN - Admin</t>
+          <t>US - Admin</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>India &gt; PTO</t>
+          <t>US Program &gt; PTO</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5727</t>
+          <t>PROJECT_PLAN_TASK-3-5735</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -2770,49 +2754,45 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Riya Saxena</t>
+          <t>Katie Siegner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
+        <v>868</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Carbon-Free Electricity</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Regular</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>03/01/2024</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/31/2040</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>New Delhi</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>21</v>
+          <t>07/22/2019</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Remote - District of Columbia</t>
+        </is>
       </c>
       <c r="J25" t="n">
-        <v>1922</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>984.037833</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2822,17 +2802,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bonus Only</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>6629.33</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2841,22 +2821,22 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2433</t>
+          <t>PROJECT_PLAN_TASK-3-2289</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>IN - Admin</t>
+          <t>POW - Admin</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>India &gt; PTO</t>
+          <t>Carbon-Free Electricity &gt; PTO</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5727</t>
+          <t>PROJECT_PLAN_TASK-3-5698</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -2864,466 +2844,6 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Ruosida Lin | Star Lin</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Climate Aligned Industries</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>09/01/2015</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Remote - Colorado</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>517</v>
-      </c>
-      <c r="K26" t="n">
-        <v>448.835833</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>CAI - Admin</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Joanna Unruh</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Org Finance</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>03/05/2018</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Remote - Montana</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>617</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1048.545333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-1652</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>ACT - Accounting</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Accounting &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5772</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Samuel Mardell | Sam Mardell</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>06/10/2019</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Remote - New York</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>628</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1022.623917</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-2289</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>POW - Admin</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5698</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Matthew Popkin</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>02/04/2019</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Remote - Colorado</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>813</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1106.028</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-2559</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>US - Admin</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>US Program &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5735</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Katie Siegner</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>07/22/2019</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Remote - District of Columbia</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>868</v>
-      </c>
-      <c r="K30" t="n">
-        <v>984.037833</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-2289</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>POW - Admin</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5698</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Outputs/timesheets.xlsx
+++ b/Outputs/timesheets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,22 +562,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amar Shah</t>
+          <t>Ben Webster</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>913</v>
+        <v>1553</v>
       </c>
       <c r="D2" t="n">
-        <v>5048.16</v>
+        <v>15416.68</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Carbon-Free Buildings</t>
+          <t>MiQ Foundation</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2020</t>
+          <t>06/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -597,20 +597,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Remote - California</t>
+          <t>Remote - Colorado</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>1130.972417</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M2" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -624,31 +624,31 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Admin &gt; General</t>
+          <t>General &gt; General</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2271</t>
+          <t>PROJECT_PLAN_TASK-3-4631</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>BLD - Admin</t>
+          <t>MiQ - Admin</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Carbon-Free Buildings &gt; PTO</t>
+          <t>MiQ &gt; PTO</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5718</t>
+          <t>PROJECT_PLAN_TASK-3-5730</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -658,22 +658,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andrew Waddell (On Leave)</t>
+          <t>Gabrielle Couderc (On Leave)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1711</v>
+        <v>1673</v>
       </c>
       <c r="D3" t="n">
-        <v>4180.13</v>
+        <v>4846.72</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -693,20 +693,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Remote - California</t>
+          <t>Remote-France</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="n">
-        <v>879.166667</v>
+        <v>340.372083</v>
       </c>
       <c r="L3" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M3" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -729,22 +729,22 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-2415</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>GCF - Admin</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>Finance &gt; PTO</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5726</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -754,22 +754,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ben Webster</t>
+          <t>Gregory Hopkins | Greg Hopkins</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1553</v>
+        <v>584</v>
       </c>
       <c r="D4" t="n">
-        <v>15416.68</v>
+        <v>12497.01</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MiQ Foundation</t>
+          <t>CEO Team</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06/06/2022</t>
+          <t>07/17/2017</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2499.3985</v>
       </c>
       <c r="L4" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M4" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -816,31 +816,31 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>General &gt; General</t>
+          <t>Admin &gt; General</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-4631</t>
+          <t>PROJECT_PLAN_TASK-3-2163</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>MiQ - Admin</t>
+          <t>CEO - CEO Admin</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>MiQ &gt; PTO</t>
+          <t>CEO Team &gt; PTO</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5730</t>
+          <t>PROJECT_PLAN_TASK-3-5773</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -850,22 +850,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>James Mitchell (On Leave)</t>
+          <t>James Sun (Terminated)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>645</v>
+        <v>1716</v>
       </c>
       <c r="D5" t="n">
-        <v>17263.55</v>
+        <v>2926.25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Climate Aligned Industries</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -875,30 +875,30 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2021</t>
+          <t>01/17/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10/31/2040</t>
+          <t>10/14/2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Remote-United Kingdom</t>
+          <t>Remote - Michigan</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>2985.877333</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M5" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -921,22 +921,22 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2415</t>
+          <t>PROJECT_PLAN_TASK-3-2343</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>GCF - Admin</t>
+          <t>CAI - Admin</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Finance &gt; PTO</t>
+          <t>Climate Aligned Industries &gt; PTO</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5726</t>
+          <t>PROJECT_PLAN_TASK-3-5723</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -946,22 +946,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James Sun (On Leave)</t>
+          <t>Jennifer Grizzard Ekzarkhov</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1716</v>
+        <v>1394</v>
       </c>
       <c r="D6" t="n">
-        <v>6437.76</v>
+        <v>11058.13</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/17/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -981,20 +981,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Remote - Michigan</t>
+          <t>Remote - Maryland</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>321.875</v>
+        <v>1105.811417</v>
       </c>
       <c r="L6" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M6" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1017,22 +1017,22 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-2181</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>DEV - Admin</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>Development &gt; PTO</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5770</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jennifer Grizzard Ekzarkhov</t>
+          <t>Jeremy Wendt</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1394</v>
+        <v>1015</v>
       </c>
       <c r="D7" t="n">
-        <v>11058.13</v>
+        <v>12114.17</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>Org Finance</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/19/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1077,20 +1077,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Remote - Maryland</t>
+          <t>Remote - Colorado</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>1105.811417</v>
+        <v>1211.415167</v>
       </c>
       <c r="L7" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M7" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1113,22 +1113,22 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2181</t>
+          <t>PROJECT_PLAN_TASK-3-1652</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>DEV - Admin</t>
+          <t>ACT - Accounting</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Development &gt; PTO</t>
+          <t>Accounting &gt; PTO</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5770</t>
+          <t>PROJECT_PLAN_TASK-3-5772</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -1138,22 +1138,22 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>333</v>
+        <v>410</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jeremy Wendt</t>
+          <t>Lara Owens</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="D8" t="n">
-        <v>12114.17</v>
+        <v>13333.35</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Org Finance</t>
+          <t>MiQ Foundation</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01/19/2021</t>
+          <t>12/15/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1173,20 +1173,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Remote - Colorado</t>
+          <t>Remote - Pennsylvania</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>1211.415167</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M8" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1200,31 +1200,31 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Admin &gt; General</t>
+          <t>General &gt; General</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-1652</t>
+          <t>PROJECT_PLAN_TASK-3-4631</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>ACT - Accounting</t>
+          <t>MiQ - Admin</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Accounting &gt; PTO</t>
+          <t>MiQ &gt; PTO</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5772</t>
+          <t>PROJECT_PLAN_TASK-3-5730</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1234,22 +1234,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>365</v>
+        <v>563</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Julia Thayne (Terminated)</t>
+          <t>Raghav Muralidharan (On Leave)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1308</v>
+        <v>820</v>
       </c>
       <c r="D9" t="n">
-        <v>7113.08</v>
+        <v>8706.57</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries</t>
+          <t>Carbon-Free Buildings</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1259,30 +1259,30 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/13/2021</t>
+          <t>04/08/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09/30/2024</t>
+          <t>10/31/2040</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Remote - California</t>
+          <t>Remote - New York</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>435.327042</v>
       </c>
       <c r="L9" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M9" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1305,22 +1305,22 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-2271</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>BLD - Admin</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>Carbon-Free Buildings &gt; PTO</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5718</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -1330,22 +1330,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>409</v>
+        <v>569</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lara Owens</t>
+          <t>Rebecca Pimentel</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1008</v>
+        <v>642</v>
       </c>
       <c r="D10" t="n">
-        <v>13333.35</v>
+        <v>17057</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MiQ Foundation</t>
+          <t>Development</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/15/2020</t>
+          <t>06/18/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1365,20 +1365,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Remote - Pennsylvania</t>
+          <t>Remote - California</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>3411.397</v>
       </c>
       <c r="L10" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M10" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1392,31 +1392,31 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>General &gt; General</t>
+          <t>Admin &gt; General</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-4631</t>
+          <t>PROJECT_PLAN_TASK-3-2181</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>MiQ - Admin</t>
+          <t>DEV - Admin</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>MiQ &gt; PTO</t>
+          <t>Development &gt; PTO</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5730</t>
+          <t>PROJECT_PLAN_TASK-3-5770</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1426,22 +1426,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>427</v>
+        <v>601</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leslyn Simmons | Lyn Simmons</t>
+          <t>Sarah La Monaca | Sarah LaMonaca</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1466</v>
+        <v>887</v>
       </c>
       <c r="D11" t="n">
-        <v>12795.43</v>
+        <v>11108.03</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>People Team</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>04/11/2022</t>
+          <t>11/04/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1461,20 +1461,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Remote - Virginia</t>
+          <t>Remote-Netherlands</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>2559.083333</v>
+        <v>2458.176333</v>
       </c>
       <c r="L11" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1497,22 +1497,22 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2235</t>
+          <t>PROJECT_PLAN_TASK-3-2415</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>HRS - Admin</t>
+          <t>GCF - Admin</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>People Team &gt; PTO</t>
+          <t>Finance &gt; PTO</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5769</t>
+          <t>PROJECT_PLAN_TASK-3-5726</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1522,22 +1522,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>448</v>
+        <v>603</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Malika Jackson (On Leave)</t>
+          <t>Sarah Mendelsohn</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="D12" t="n">
-        <v>5690.75</v>
+        <v>10931.63</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>People Team</t>
+          <t>Climate Aligned Industries</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1557,20 +1557,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Remote - District of Columbia</t>
+          <t>Remote - New York</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
-        <v>1138.15</v>
+        <v>1093.161583</v>
       </c>
       <c r="L12" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M12" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1593,22 +1593,22 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2235</t>
+          <t>PROJECT_PLAN_TASK-3-2343</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>HRS - Admin</t>
+          <t>CAI - Admin</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>People Team &gt; PTO</t>
+          <t>Climate Aligned Industries &gt; PTO</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5769</t>
+          <t>PROJECT_PLAN_TASK-3-5723</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1618,22 +1618,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>487</v>
+        <v>605</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Michael Huffman</t>
+          <t>Sascha Flesch (On Leave)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1725</v>
+        <v>1367</v>
       </c>
       <c r="D13" t="n">
-        <v>4891.64</v>
+        <v>9956.9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Climate Intelligence</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>01/17/2023</t>
+          <t>11/29/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1653,20 +1653,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Remote - Colorado</t>
+          <t>Remote-Austria</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" t="n">
-        <v>939.875</v>
+        <v>1064.2595</v>
       </c>
       <c r="L13" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M13" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1689,22 +1689,22 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2379</t>
+          <t>PROJECT_PLAN_TASK-3-2253</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>CIP - Admin</t>
+          <t>AF - Admin</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Climate Intelligence &gt; PTO</t>
+          <t>Africa &gt; PTO</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5722</t>
+          <t>PROJECT_PLAN_TASK-3-5719</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -1714,22 +1714,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sarah La Monaca | Sarah LaMonaca</t>
+          <t>Shannon Hughes (On Leave)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>887</v>
+        <v>1334</v>
       </c>
       <c r="D14" t="n">
-        <v>11669.78</v>
+        <v>10465.42</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>Influence Team</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/04/2019</t>
+          <t>09/27/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1749,20 +1749,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Remote-Netherlands</t>
+          <t>Remote - Montana</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" t="n">
-        <v>2458.176333</v>
+        <v>1046.5</v>
       </c>
       <c r="L14" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M14" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1785,22 +1785,22 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2415</t>
+          <t>PROJECT_PLAN_TASK-3-2145</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>GCF - Admin</t>
+          <t>COM - Admin</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Finance &gt; PTO</t>
+          <t>Influence Team &gt; PTO</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5726</t>
+          <t>PROJECT_PLAN_TASK-3-5737</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -1810,22 +1810,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shannon Hughes (On Leave)</t>
+          <t>Sharon Paterson</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1334</v>
+        <v>1516</v>
       </c>
       <c r="D15" t="n">
-        <v>6754.96</v>
+        <v>16666.69</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Influence Team</t>
+          <t>MiQ Foundation</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/27/2021</t>
+          <t>05/18/2022</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1845,20 +1845,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Remote - Montana</t>
+          <t>Remote - North Carolina</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" t="n">
-        <v>1046.5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M15" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1872,31 +1872,31 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Admin &gt; General</t>
+          <t>General &gt; General</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2145</t>
+          <t>PROJECT_PLAN_TASK-3-4631</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>COM - Admin</t>
+          <t>MiQ - Admin</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Influence Team &gt; PTO</t>
+          <t>MiQ &gt; PTO</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5737</t>
+          <t>PROJECT_PLAN_TASK-3-5730</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1906,18 +1906,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sharon Paterson</t>
+          <t>Sunny Uberoi</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1516</v>
+        <v>1660</v>
       </c>
       <c r="D16" t="n">
-        <v>16666.69</v>
+        <v>15416.68</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05/18/2022</t>
+          <t>10/24/2022</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1941,20 +1941,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Remote - North Carolina</t>
+          <t>Remote - New York</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M16" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>1649</v>
       </c>
       <c r="D17" t="n">
-        <v>8265.700000000001</v>
+        <v>8071.68</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" t="n">
         <v>419.08125</v>
       </c>
       <c r="L17" t="n">
-        <v>3240.020445103858</v>
+        <v>2330.189307805597</v>
       </c>
       <c r="M17" t="n">
-        <v>998.3016913946587</v>
+        <v>1180.661929307806</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2098,22 +2098,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Yetunde Smythe | Yetti Smythe</t>
+          <t>Akshima Ghate</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1604</v>
+        <v>1913</v>
       </c>
       <c r="D18" t="n">
-        <v>8583.35</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>People Team</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/02/2022</t>
+          <t>03/01/2024</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2133,34 +2133,34 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Remote - Maryland</t>
+          <t>New Delhi</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K18" t="n">
-        <v>429.166667</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3240.020445103858</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>998.3016913946587</v>
+        <v>0</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>GP &amp; RMI</t>
+          <t>India</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>23020.66</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2169,22 +2169,22 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2235</t>
+          <t>PROJECT_PLAN_TASK-3-2433</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>HRS - Admin</t>
+          <t>IN - Admin</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>People Team &gt; PTO</t>
+          <t>India &gt; PTO</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5769</t>
+          <t>PROJECT_PLAN_TASK-3-5727</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2194,22 +2194,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>710</v>
+        <v>739</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Akshima Ghate</t>
+          <t>Ruosida Lin | Star Lin</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1913</v>
+        <v>517</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Climate Aligned Industries</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2219,24 +2219,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03/01/2024</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>10/31/2040</t>
-        </is>
-      </c>
+          <t>09/01/2015</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Remote - Colorado</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>448.835833</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2246,17 +2242,17 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bonus Only</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>23093.46</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2265,22 +2261,22 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2433</t>
+          <t>PROJECT_PLAN_TASK-3-2343</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>IN - Admin</t>
+          <t>CAI - Admin</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>India &gt; PTO</t>
+          <t>Climate Aligned Industries &gt; PTO</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5727</t>
+          <t>PROJECT_PLAN_TASK-3-5723</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -2290,22 +2286,22 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Riya Saxena</t>
+          <t>Samuel Mardell | Sam Mardell</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1922</v>
+        <v>628</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Carbon-Free Electricity</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2315,24 +2311,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/01/2024</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>10/31/2040</t>
-        </is>
-      </c>
+          <t>06/10/2019</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Remote - New York</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1022.623917</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2342,17 +2334,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bonus Only</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>6629.33</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2361,22 +2353,22 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2433</t>
+          <t>PROJECT_PLAN_TASK-3-2289</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>IN - Admin</t>
+          <t>POW - Admin</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>India &gt; PTO</t>
+          <t>Carbon-Free Electricity &gt; PTO</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5727</t>
+          <t>PROJECT_PLAN_TASK-3-5698</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -2386,22 +2378,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ruosida Lin | Star Lin</t>
+          <t>Matthew Popkin</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>517</v>
+        <v>813</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries</t>
+          <t>US</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2411,7 +2403,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>02/04/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2424,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>448.835833</v>
+        <v>1106.028</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2453,22 +2445,22 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-2343</t>
+          <t>PROJECT_PLAN_TASK-3-2559</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>CAI - Admin</t>
+          <t>US - Admin</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Climate Aligned Industries &gt; PTO</t>
+          <t>US Program &gt; PTO</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5723</t>
+          <t>PROJECT_PLAN_TASK-3-5735</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -2478,22 +2470,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Joanna Unruh</t>
+          <t>Charles Cannon</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>617</v>
+        <v>818</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Org Finance</t>
+          <t>Carbon-Free Electricity</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2503,20 +2495,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03/05/2018</t>
+          <t>03/18/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Remote - Montana</t>
+          <t>Remote - Colorado</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1048.545333</v>
+        <v>1057.466667</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2545,22 +2537,22 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-1652</t>
+          <t>PROJECT_PLAN_TASK-3-2289</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>ACT - Accounting</t>
+          <t>POW - Admin</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Accounting &gt; PTO</t>
+          <t>Carbon-Free Electricity &gt; PTO</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>PROJECT_PLAN_TASK-3-5772</t>
+          <t>PROJECT_PLAN_TASK-3-5698</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -2568,282 +2560,6 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Samuel Mardell | Sam Mardell</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>628</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>06/10/2019</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Remote - New York</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1022.623917</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-2289</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>POW - Admin</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5698</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Matthew Popkin</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>813</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>02/04/2019</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Remote - Colorado</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1106.028</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-2559</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>US - Admin</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>US Program &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5735</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Katie Siegner</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>868</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>07/22/2019</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Remote - District of Columbia</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>984.037833</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Bonus Only</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Admin &gt; General</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-2289</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>POW - Admin</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>Carbon-Free Electricity &gt; PTO</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>PROJECT_PLAN_TASK-3-5698</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
